--- a/To do list for projects1.xlsx
+++ b/To do list for projects1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>תאריך יעד</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>13.12-15.12.16</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>היה קיים כבר, רק חידשנו פעילות</t>
+  </si>
+  <si>
+    <t>הכנת מצגת לשם הסברה</t>
+  </si>
+  <si>
+    <t>11-12.12.16</t>
   </si>
 </sst>
 </file>
@@ -198,14 +210,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -297,14 +327,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A2:E19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:E19"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A2:F20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:F20">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" name="בוצע"/>
     <tableColumn id="2" name="שם כללי למשימה"/>
     <tableColumn id="4" name="משתתפים"/>
     <tableColumn id="5" name="תאריך יעד"/>
     <tableColumn id="6" name="פירוט"/>
+    <tableColumn id="3" name="הערות" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -607,14 +640,15 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,8 +664,11 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -647,8 +684,9 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -664,8 +702,9 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -678,8 +717,9 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -695,8 +735,9 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -712,8 +753,9 @@
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -729,128 +771,149 @@
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,22 +921,36 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To do list for projects1.xlsx
+++ b/To do list for projects1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>תאריך יעד</t>
   </si>
@@ -28,9 +28,6 @@
     <t>לימוד</t>
   </si>
   <si>
-    <t>הסברה</t>
-  </si>
-  <si>
     <t>רשימת משימות - איך נבצע את השינוי במקום העבודה</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>ראש צוות</t>
   </si>
   <si>
-    <t>הסבר על תכנת git והחשיבות בשינוי סדר העבודה</t>
-  </si>
-  <si>
     <t>גיבוי</t>
   </si>
   <si>
@@ -173,6 +167,27 @@
   </si>
   <si>
     <t>11-12.12.16</t>
+  </si>
+  <si>
+    <t>משימות</t>
+  </si>
+  <si>
+    <t>פרסום משרה בlinkedin, הכנת שאלות</t>
+  </si>
+  <si>
+    <t>מצגת הכוללת הסבר על מתודולגיית agile, שימוש ב-git וב-jira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V </t>
+  </si>
+  <si>
+    <t>ראש צוות, מפתחים1</t>
+  </si>
+  <si>
+    <t>12-12.16</t>
+  </si>
+  <si>
+    <t>הסברה לצוות על התהליך החדש</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -327,17 +359,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A2:F20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:F20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A2:G20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:G20">
     <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="בוצע"/>
     <tableColumn id="2" name="שם כללי למשימה"/>
     <tableColumn id="4" name="משתתפים"/>
     <tableColumn id="5" name="תאריך יעד"/>
     <tableColumn id="6" name="פירוט"/>
-    <tableColumn id="3" name="הערות" dataDxfId="0"/>
+    <tableColumn id="8" name="משימות" dataDxfId="0"/>
+    <tableColumn id="3" name="הערות" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -640,317 +674,343 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
